--- a/Rule/InsAddCvgRule.xlsx
+++ b/Rule/InsAddCvgRule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MainCvg" sheetId="3" r:id="rId1"/>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2775,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q236"/>
   <sheetViews>
-    <sheetView topLeftCell="C175" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F229" sqref="F229"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Rule/InsAddCvgRule.xlsx
+++ b/Rule/InsAddCvgRule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="MainCvg" sheetId="3" r:id="rId1"/>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2775,7 +2775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>

--- a/Rule/InsAddCvgRule.xlsx
+++ b/Rule/InsAddCvgRule.xlsx
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2775,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q236"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="C175" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Rule/InsAddCvgRule.xlsx
+++ b/Rule/InsAddCvgRule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MainCvg" sheetId="3" r:id="rId1"/>
@@ -583,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
@@ -2775,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q236"/>
   <sheetViews>
-    <sheetView topLeftCell="C175" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F229" sqref="F229"/>
+    <sheetView tabSelected="1" topLeftCell="C145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Rule/InsAddCvgRule.xlsx
+++ b/Rule/InsAddCvgRule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="MainCvg" sheetId="3" r:id="rId1"/>
@@ -583,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView topLeftCell="C43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
@@ -2775,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H154" sqref="H154"/>
+    <sheetView topLeftCell="C175" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Rule/InsAddCvgRule.xlsx
+++ b/Rule/InsAddCvgRule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-11END\Rule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willis.wy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MainCvg" sheetId="3" r:id="rId1"/>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2775,7 +2775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q236"/>
   <sheetViews>
-    <sheetView topLeftCell="C175" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C188" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>

--- a/Rule/InsAddCvgRule.xlsx
+++ b/Rule/InsAddCvgRule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willis.wy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ardhi.wa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AA6716-D253-4606-8BC0-B92F389E8A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MainCvg" sheetId="3" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="61">
   <si>
     <t>DATA OBJECTS</t>
   </si>
@@ -201,11 +202,14 @@
   <si>
     <t>TFT_RB</t>
   </si>
+  <si>
+    <t>A0001-003</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -580,11 +584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD68"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2766,17 +2770,409 @@
         <v>1.06</v>
       </c>
     </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>100000000</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="I81" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="J81" s="4">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="4">
+        <v>100000001</v>
+      </c>
+      <c r="F82" s="4">
+        <v>200000000</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" s="4">
+        <v>2.69</v>
+      </c>
+      <c r="I82" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="J82" s="4">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="4">
+        <v>200000001</v>
+      </c>
+      <c r="F83" s="4">
+        <v>300000000</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="J83" s="4">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="4">
+        <v>300000001</v>
+      </c>
+      <c r="F84" s="4">
+        <v>400000000</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="J84" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="4">
+        <v>400000001</v>
+      </c>
+      <c r="F85" s="4">
+        <v>9999999999</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="J85" s="4">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>100000000</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="I86" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="J86" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="4">
+        <v>100000001</v>
+      </c>
+      <c r="F87" s="4">
+        <v>200000000</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H87" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="I87" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="J87" s="4">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="4">
+        <v>200000001</v>
+      </c>
+      <c r="F88" s="4">
+        <v>300000000</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H88" s="4">
+        <v>2.66</v>
+      </c>
+      <c r="I88" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="J88" s="4">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="4">
+        <v>300000001</v>
+      </c>
+      <c r="F89" s="4">
+        <v>400000000</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H89" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="I89" s="4">
+        <v>1.71</v>
+      </c>
+      <c r="J89" s="4">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="4">
+        <v>400000001</v>
+      </c>
+      <c r="F90" s="4">
+        <v>9999999999</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="I90" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="J90" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>100000000</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="I91" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="J91" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="4">
+        <v>100000001</v>
+      </c>
+      <c r="F92" s="4">
+        <v>200000000</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="I92" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="J92" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="4">
+        <v>200000001</v>
+      </c>
+      <c r="F93" s="4">
+        <v>9999999999</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="I93" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="J93" s="4">
+        <v>1.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q236"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C188" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F229" sqref="F229"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -13440,6 +13836,2131 @@
         <v>50</v>
       </c>
     </row>
+    <row r="237" spans="1:17">
+      <c r="A237" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B237" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D237" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E237" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F237" s="4">
+        <v>0</v>
+      </c>
+      <c r="G237" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H237" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I237" s="4">
+        <v>0</v>
+      </c>
+      <c r="J237" s="4">
+        <v>0</v>
+      </c>
+      <c r="K237" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L237" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="M237" s="8">
+        <v>33.82</v>
+      </c>
+      <c r="N237" s="7">
+        <v>0</v>
+      </c>
+      <c r="O237" s="7">
+        <v>0</v>
+      </c>
+      <c r="P237" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q237" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17">
+      <c r="A238" s="4"/>
+      <c r="B238" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="4">
+        <v>0</v>
+      </c>
+      <c r="G238" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H238" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I238" s="4">
+        <v>0</v>
+      </c>
+      <c r="J238" s="4">
+        <v>0</v>
+      </c>
+      <c r="K238" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L238" s="7">
+        <v>0</v>
+      </c>
+      <c r="M238" s="8">
+        <v>0</v>
+      </c>
+      <c r="N238" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="O238" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P238" s="7">
+        <v>150000</v>
+      </c>
+      <c r="Q238" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17">
+      <c r="A239" s="4"/>
+      <c r="B239" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="4">
+        <v>0</v>
+      </c>
+      <c r="G239" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H239" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I239" s="4">
+        <v>0</v>
+      </c>
+      <c r="J239" s="4">
+        <v>0</v>
+      </c>
+      <c r="K239" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L239" s="7">
+        <v>0</v>
+      </c>
+      <c r="M239" s="8">
+        <v>0</v>
+      </c>
+      <c r="N239" s="7">
+        <v>15000000</v>
+      </c>
+      <c r="O239" s="7">
+        <v>150000</v>
+      </c>
+      <c r="P239" s="7">
+        <v>200000</v>
+      </c>
+      <c r="Q239" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17">
+      <c r="A240" s="4"/>
+      <c r="B240" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4">
+        <v>0</v>
+      </c>
+      <c r="G240" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H240" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I240" s="4">
+        <v>0</v>
+      </c>
+      <c r="J240" s="4">
+        <v>0</v>
+      </c>
+      <c r="K240" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L240" s="7">
+        <v>0</v>
+      </c>
+      <c r="M240" s="8">
+        <v>0</v>
+      </c>
+      <c r="N240" s="7">
+        <v>20000000</v>
+      </c>
+      <c r="O240" s="7">
+        <v>200000</v>
+      </c>
+      <c r="P240" s="7">
+        <v>250000</v>
+      </c>
+      <c r="Q240" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17">
+      <c r="A241" s="4"/>
+      <c r="B241" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4">
+        <v>0</v>
+      </c>
+      <c r="G241" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H241" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I241" s="4">
+        <v>0</v>
+      </c>
+      <c r="J241" s="4">
+        <v>0</v>
+      </c>
+      <c r="K241" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L241" s="7">
+        <v>0</v>
+      </c>
+      <c r="M241" s="8">
+        <v>0</v>
+      </c>
+      <c r="N241" s="7">
+        <v>25000000</v>
+      </c>
+      <c r="O241" s="7">
+        <v>250000</v>
+      </c>
+      <c r="P241" s="7">
+        <v>300000</v>
+      </c>
+      <c r="Q241" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17">
+      <c r="A242" s="4"/>
+      <c r="B242" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4">
+        <v>0</v>
+      </c>
+      <c r="G242" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H242" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I242" s="4">
+        <v>0</v>
+      </c>
+      <c r="J242" s="4">
+        <v>0</v>
+      </c>
+      <c r="K242" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L242" s="7">
+        <v>0</v>
+      </c>
+      <c r="M242" s="8">
+        <v>0</v>
+      </c>
+      <c r="N242" s="7">
+        <v>30000000</v>
+      </c>
+      <c r="O242" s="7">
+        <v>300000</v>
+      </c>
+      <c r="P242" s="7">
+        <v>350000</v>
+      </c>
+      <c r="Q242" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17">
+      <c r="A243" s="4"/>
+      <c r="B243" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C243" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+      <c r="F243" s="4">
+        <v>0</v>
+      </c>
+      <c r="G243" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H243" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I243" s="4">
+        <v>0</v>
+      </c>
+      <c r="J243" s="4">
+        <v>0</v>
+      </c>
+      <c r="K243" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L243" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="M243" s="8">
+        <v>1.71</v>
+      </c>
+      <c r="N243" s="7">
+        <v>0</v>
+      </c>
+      <c r="O243" s="7">
+        <v>0</v>
+      </c>
+      <c r="P243" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q243" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17">
+      <c r="A244" s="4"/>
+      <c r="B244" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4">
+        <v>0</v>
+      </c>
+      <c r="G244" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H244" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I244" s="4">
+        <v>0</v>
+      </c>
+      <c r="J244" s="4">
+        <v>50</v>
+      </c>
+      <c r="K244" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L244" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="M244" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="N244" s="7">
+        <v>0</v>
+      </c>
+      <c r="O244" s="7">
+        <v>0</v>
+      </c>
+      <c r="P244" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q244" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17">
+      <c r="A245" s="4"/>
+      <c r="B245" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="4">
+        <v>0</v>
+      </c>
+      <c r="G245" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H245" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I245" s="6">
+        <v>0</v>
+      </c>
+      <c r="J245" s="6">
+        <v>0</v>
+      </c>
+      <c r="K245" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L245" s="7">
+        <v>0</v>
+      </c>
+      <c r="M245" s="8">
+        <v>0</v>
+      </c>
+      <c r="N245" s="7">
+        <v>25000000</v>
+      </c>
+      <c r="O245" s="7">
+        <v>250000</v>
+      </c>
+      <c r="P245" s="7">
+        <v>300000</v>
+      </c>
+      <c r="Q245" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17">
+      <c r="A246" s="4"/>
+      <c r="B246" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4"/>
+      <c r="F246" s="4">
+        <v>0</v>
+      </c>
+      <c r="G246" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H246" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I246" s="6">
+        <v>0</v>
+      </c>
+      <c r="J246" s="6">
+        <v>0</v>
+      </c>
+      <c r="K246" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L246" s="7">
+        <v>0</v>
+      </c>
+      <c r="M246" s="8">
+        <v>0</v>
+      </c>
+      <c r="N246" s="7">
+        <v>30000000</v>
+      </c>
+      <c r="O246" s="7">
+        <v>300000</v>
+      </c>
+      <c r="P246" s="7">
+        <v>350000</v>
+      </c>
+      <c r="Q246" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17">
+      <c r="A247" s="4"/>
+      <c r="B247" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4"/>
+      <c r="F247" s="4">
+        <v>0</v>
+      </c>
+      <c r="G247" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H247" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I247" s="4">
+        <v>0</v>
+      </c>
+      <c r="J247" s="4">
+        <v>0</v>
+      </c>
+      <c r="K247" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L247" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="M247" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="N247" s="7">
+        <v>0</v>
+      </c>
+      <c r="O247" s="7">
+        <v>0</v>
+      </c>
+      <c r="P247" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q247" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17">
+      <c r="A248" s="4"/>
+      <c r="B248" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4"/>
+      <c r="F248" s="4">
+        <v>0</v>
+      </c>
+      <c r="G248" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H248" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I248" s="4">
+        <v>0</v>
+      </c>
+      <c r="J248" s="4">
+        <v>0</v>
+      </c>
+      <c r="K248" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L248" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="M248" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="N248" s="7">
+        <v>0</v>
+      </c>
+      <c r="O248" s="7">
+        <v>0</v>
+      </c>
+      <c r="P248" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q248" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17">
+      <c r="A249" s="4"/>
+      <c r="B249" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D249" s="4"/>
+      <c r="E249" s="4"/>
+      <c r="F249" s="4">
+        <v>0</v>
+      </c>
+      <c r="G249" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H249" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I249" s="4">
+        <v>5</v>
+      </c>
+      <c r="J249" s="4">
+        <v>15</v>
+      </c>
+      <c r="K249" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L249" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="M249" s="8">
+        <v>1.21</v>
+      </c>
+      <c r="N249" s="7">
+        <v>0</v>
+      </c>
+      <c r="O249" s="7">
+        <v>0</v>
+      </c>
+      <c r="P249" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q249" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17">
+      <c r="A250" s="4"/>
+      <c r="B250" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D250" s="4"/>
+      <c r="E250" s="4"/>
+      <c r="F250" s="4">
+        <v>0</v>
+      </c>
+      <c r="G250" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H250" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I250" s="4">
+        <v>16</v>
+      </c>
+      <c r="J250" s="4">
+        <v>20</v>
+      </c>
+      <c r="K250" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L250" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="M250" s="8">
+        <v>1.31</v>
+      </c>
+      <c r="N250" s="7">
+        <v>0</v>
+      </c>
+      <c r="O250" s="7">
+        <v>0</v>
+      </c>
+      <c r="P250" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q250" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17">
+      <c r="A251" s="4"/>
+      <c r="B251" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4"/>
+      <c r="F251" s="4">
+        <v>0</v>
+      </c>
+      <c r="G251" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H251" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I251" s="4">
+        <v>21</v>
+      </c>
+      <c r="J251" s="4">
+        <v>50</v>
+      </c>
+      <c r="K251" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L251" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M251" s="8">
+        <v>1.41</v>
+      </c>
+      <c r="N251" s="7">
+        <v>0</v>
+      </c>
+      <c r="O251" s="7">
+        <v>0</v>
+      </c>
+      <c r="P251" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q251" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17">
+      <c r="A252" s="4"/>
+      <c r="B252" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D252" s="4"/>
+      <c r="E252" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F252" s="4">
+        <v>0</v>
+      </c>
+      <c r="G252" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H252" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I252" s="4">
+        <v>0</v>
+      </c>
+      <c r="J252" s="4">
+        <v>0</v>
+      </c>
+      <c r="K252" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L252" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="M252" s="8">
+        <v>33.82</v>
+      </c>
+      <c r="N252" s="7">
+        <v>0</v>
+      </c>
+      <c r="O252" s="7">
+        <v>0</v>
+      </c>
+      <c r="P252" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q252" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17">
+      <c r="A253" s="4"/>
+      <c r="B253" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4"/>
+      <c r="F253" s="4">
+        <v>0</v>
+      </c>
+      <c r="G253" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H253" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I253" s="4">
+        <v>0</v>
+      </c>
+      <c r="J253" s="4">
+        <v>0</v>
+      </c>
+      <c r="K253" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L253" s="7">
+        <v>0</v>
+      </c>
+      <c r="M253" s="8">
+        <v>0</v>
+      </c>
+      <c r="N253" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="O253" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P253" s="7">
+        <v>150000</v>
+      </c>
+      <c r="Q253" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17">
+      <c r="A254" s="4"/>
+      <c r="B254" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4"/>
+      <c r="F254" s="4">
+        <v>0</v>
+      </c>
+      <c r="G254" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H254" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I254" s="4">
+        <v>0</v>
+      </c>
+      <c r="J254" s="4">
+        <v>0</v>
+      </c>
+      <c r="K254" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L254" s="7">
+        <v>0</v>
+      </c>
+      <c r="M254" s="8">
+        <v>0</v>
+      </c>
+      <c r="N254" s="7">
+        <v>15000000</v>
+      </c>
+      <c r="O254" s="7">
+        <v>150000</v>
+      </c>
+      <c r="P254" s="7">
+        <v>200000</v>
+      </c>
+      <c r="Q254" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17">
+      <c r="A255" s="4"/>
+      <c r="B255" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D255" s="4"/>
+      <c r="E255" s="4"/>
+      <c r="F255" s="4">
+        <v>0</v>
+      </c>
+      <c r="G255" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H255" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I255" s="4">
+        <v>0</v>
+      </c>
+      <c r="J255" s="4">
+        <v>0</v>
+      </c>
+      <c r="K255" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L255" s="7">
+        <v>0</v>
+      </c>
+      <c r="M255" s="8">
+        <v>0</v>
+      </c>
+      <c r="N255" s="7">
+        <v>20000000</v>
+      </c>
+      <c r="O255" s="7">
+        <v>200000</v>
+      </c>
+      <c r="P255" s="7">
+        <v>250000</v>
+      </c>
+      <c r="Q255" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17">
+      <c r="A256" s="4"/>
+      <c r="B256" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D256" s="4"/>
+      <c r="E256" s="4"/>
+      <c r="F256" s="4">
+        <v>0</v>
+      </c>
+      <c r="G256" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H256" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I256" s="4">
+        <v>0</v>
+      </c>
+      <c r="J256" s="4">
+        <v>0</v>
+      </c>
+      <c r="K256" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L256" s="7">
+        <v>0</v>
+      </c>
+      <c r="M256" s="8">
+        <v>0</v>
+      </c>
+      <c r="N256" s="7">
+        <v>25000000</v>
+      </c>
+      <c r="O256" s="7">
+        <v>250000</v>
+      </c>
+      <c r="P256" s="7">
+        <v>300000</v>
+      </c>
+      <c r="Q256" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17">
+      <c r="A257" s="4"/>
+      <c r="B257" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D257" s="4"/>
+      <c r="E257" s="4"/>
+      <c r="F257" s="4">
+        <v>0</v>
+      </c>
+      <c r="G257" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H257" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I257" s="4">
+        <v>0</v>
+      </c>
+      <c r="J257" s="4">
+        <v>0</v>
+      </c>
+      <c r="K257" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L257" s="7">
+        <v>0</v>
+      </c>
+      <c r="M257" s="8">
+        <v>0</v>
+      </c>
+      <c r="N257" s="7">
+        <v>30000000</v>
+      </c>
+      <c r="O257" s="7">
+        <v>300000</v>
+      </c>
+      <c r="P257" s="7">
+        <v>350000</v>
+      </c>
+      <c r="Q257" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17">
+      <c r="A258" s="4"/>
+      <c r="B258" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D258" s="4"/>
+      <c r="E258" s="4"/>
+      <c r="F258" s="4">
+        <v>0</v>
+      </c>
+      <c r="G258" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H258" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I258" s="4">
+        <v>0</v>
+      </c>
+      <c r="J258" s="4">
+        <v>0</v>
+      </c>
+      <c r="K258" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L258" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="M258" s="8">
+        <v>1.71</v>
+      </c>
+      <c r="N258" s="7">
+        <v>0</v>
+      </c>
+      <c r="O258" s="7">
+        <v>0</v>
+      </c>
+      <c r="P258" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q258" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17">
+      <c r="A259" s="4"/>
+      <c r="B259" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C259" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D259" s="4"/>
+      <c r="E259" s="4"/>
+      <c r="F259" s="4">
+        <v>0</v>
+      </c>
+      <c r="G259" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H259" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I259" s="4">
+        <v>0</v>
+      </c>
+      <c r="J259" s="4">
+        <v>50</v>
+      </c>
+      <c r="K259" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L259" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="M259" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="N259" s="7">
+        <v>0</v>
+      </c>
+      <c r="O259" s="7">
+        <v>0</v>
+      </c>
+      <c r="P259" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q259" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17">
+      <c r="A260" s="4"/>
+      <c r="B260" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D260" s="4"/>
+      <c r="E260" s="4"/>
+      <c r="F260" s="4">
+        <v>0</v>
+      </c>
+      <c r="G260" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H260" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I260" s="6">
+        <v>0</v>
+      </c>
+      <c r="J260" s="6">
+        <v>0</v>
+      </c>
+      <c r="K260" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L260" s="7">
+        <v>0</v>
+      </c>
+      <c r="M260" s="8">
+        <v>0</v>
+      </c>
+      <c r="N260" s="7">
+        <v>25000000</v>
+      </c>
+      <c r="O260" s="7">
+        <v>250000</v>
+      </c>
+      <c r="P260" s="7">
+        <v>300000</v>
+      </c>
+      <c r="Q260" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17">
+      <c r="A261" s="4"/>
+      <c r="B261" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D261" s="4"/>
+      <c r="E261" s="4"/>
+      <c r="F261" s="4">
+        <v>0</v>
+      </c>
+      <c r="G261" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H261" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I261" s="6">
+        <v>0</v>
+      </c>
+      <c r="J261" s="6">
+        <v>0</v>
+      </c>
+      <c r="K261" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L261" s="7">
+        <v>0</v>
+      </c>
+      <c r="M261" s="8">
+        <v>0</v>
+      </c>
+      <c r="N261" s="7">
+        <v>30000000</v>
+      </c>
+      <c r="O261" s="7">
+        <v>300000</v>
+      </c>
+      <c r="P261" s="7">
+        <v>350000</v>
+      </c>
+      <c r="Q261" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17">
+      <c r="A262" s="4"/>
+      <c r="B262" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D262" s="4"/>
+      <c r="E262" s="4"/>
+      <c r="F262" s="4">
+        <v>0</v>
+      </c>
+      <c r="G262" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H262" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I262" s="4">
+        <v>0</v>
+      </c>
+      <c r="J262" s="4">
+        <v>0</v>
+      </c>
+      <c r="K262" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L262" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="M262" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="N262" s="7">
+        <v>0</v>
+      </c>
+      <c r="O262" s="7">
+        <v>0</v>
+      </c>
+      <c r="P262" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q262" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17">
+      <c r="A263" s="4"/>
+      <c r="B263" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D263" s="4"/>
+      <c r="E263" s="4"/>
+      <c r="F263" s="4">
+        <v>0</v>
+      </c>
+      <c r="G263" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H263" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I263" s="4">
+        <v>0</v>
+      </c>
+      <c r="J263" s="4">
+        <v>0</v>
+      </c>
+      <c r="K263" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L263" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="M263" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="N263" s="7">
+        <v>0</v>
+      </c>
+      <c r="O263" s="7">
+        <v>0</v>
+      </c>
+      <c r="P263" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q263" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17">
+      <c r="A264" s="4"/>
+      <c r="B264" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D264" s="4"/>
+      <c r="E264" s="4"/>
+      <c r="F264" s="4">
+        <v>0</v>
+      </c>
+      <c r="G264" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H264" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I264" s="4">
+        <v>2</v>
+      </c>
+      <c r="J264" s="4">
+        <v>3</v>
+      </c>
+      <c r="K264" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L264" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="M264" s="8">
+        <v>1.21</v>
+      </c>
+      <c r="N264" s="7">
+        <v>0</v>
+      </c>
+      <c r="O264" s="7">
+        <v>0</v>
+      </c>
+      <c r="P264" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q264" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17">
+      <c r="A265" s="4"/>
+      <c r="B265" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C265" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D265" s="4"/>
+      <c r="E265" s="4"/>
+      <c r="F265" s="4">
+        <v>0</v>
+      </c>
+      <c r="G265" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H265" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I265" s="4">
+        <v>4</v>
+      </c>
+      <c r="J265" s="4">
+        <v>5</v>
+      </c>
+      <c r="K265" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L265" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="M265" s="8">
+        <v>1.31</v>
+      </c>
+      <c r="N265" s="7">
+        <v>0</v>
+      </c>
+      <c r="O265" s="7">
+        <v>0</v>
+      </c>
+      <c r="P265" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q265" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17">
+      <c r="A266" s="4"/>
+      <c r="B266" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D266" s="4"/>
+      <c r="E266" s="4"/>
+      <c r="F266" s="4">
+        <v>0</v>
+      </c>
+      <c r="G266" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H266" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I266" s="4">
+        <v>6</v>
+      </c>
+      <c r="J266" s="4">
+        <v>10</v>
+      </c>
+      <c r="K266" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L266" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M266" s="8">
+        <v>1.41</v>
+      </c>
+      <c r="N266" s="7">
+        <v>0</v>
+      </c>
+      <c r="O266" s="7">
+        <v>0</v>
+      </c>
+      <c r="P266" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q266" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17">
+      <c r="A267" s="4"/>
+      <c r="B267" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D267" s="4"/>
+      <c r="E267" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F267" s="4">
+        <v>0</v>
+      </c>
+      <c r="G267" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H267" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I267" s="4">
+        <v>0</v>
+      </c>
+      <c r="J267" s="4">
+        <v>0</v>
+      </c>
+      <c r="K267" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L267" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="M267" s="8">
+        <v>33.82</v>
+      </c>
+      <c r="N267" s="7">
+        <v>0</v>
+      </c>
+      <c r="O267" s="7">
+        <v>0</v>
+      </c>
+      <c r="P267" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q267" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17">
+      <c r="A268" s="4"/>
+      <c r="B268" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C268" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4"/>
+      <c r="F268" s="4">
+        <v>0</v>
+      </c>
+      <c r="G268" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H268" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I268" s="4">
+        <v>0</v>
+      </c>
+      <c r="J268" s="4">
+        <v>0</v>
+      </c>
+      <c r="K268" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L268" s="7">
+        <v>0</v>
+      </c>
+      <c r="M268" s="8">
+        <v>0</v>
+      </c>
+      <c r="N268" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="O268" s="7">
+        <v>100000</v>
+      </c>
+      <c r="P268" s="7">
+        <v>150000</v>
+      </c>
+      <c r="Q268" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17">
+      <c r="A269" s="4"/>
+      <c r="B269" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C269" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4"/>
+      <c r="F269" s="4">
+        <v>0</v>
+      </c>
+      <c r="G269" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H269" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I269" s="4">
+        <v>0</v>
+      </c>
+      <c r="J269" s="4">
+        <v>0</v>
+      </c>
+      <c r="K269" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L269" s="7">
+        <v>0</v>
+      </c>
+      <c r="M269" s="8">
+        <v>0</v>
+      </c>
+      <c r="N269" s="7">
+        <v>15000000</v>
+      </c>
+      <c r="O269" s="7">
+        <v>150000</v>
+      </c>
+      <c r="P269" s="7">
+        <v>200000</v>
+      </c>
+      <c r="Q269" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17">
+      <c r="A270" s="4"/>
+      <c r="B270" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D270" s="4"/>
+      <c r="E270" s="4"/>
+      <c r="F270" s="4">
+        <v>0</v>
+      </c>
+      <c r="G270" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H270" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I270" s="4">
+        <v>0</v>
+      </c>
+      <c r="J270" s="4">
+        <v>0</v>
+      </c>
+      <c r="K270" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L270" s="7">
+        <v>0</v>
+      </c>
+      <c r="M270" s="8">
+        <v>0</v>
+      </c>
+      <c r="N270" s="7">
+        <v>20000000</v>
+      </c>
+      <c r="O270" s="7">
+        <v>200000</v>
+      </c>
+      <c r="P270" s="7">
+        <v>250000</v>
+      </c>
+      <c r="Q270" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17">
+      <c r="A271" s="4"/>
+      <c r="B271" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C271" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D271" s="4"/>
+      <c r="E271" s="4"/>
+      <c r="F271" s="4">
+        <v>0</v>
+      </c>
+      <c r="G271" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H271" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I271" s="4">
+        <v>0</v>
+      </c>
+      <c r="J271" s="4">
+        <v>0</v>
+      </c>
+      <c r="K271" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L271" s="7">
+        <v>0</v>
+      </c>
+      <c r="M271" s="8">
+        <v>0</v>
+      </c>
+      <c r="N271" s="7">
+        <v>25000000</v>
+      </c>
+      <c r="O271" s="7">
+        <v>250000</v>
+      </c>
+      <c r="P271" s="7">
+        <v>300000</v>
+      </c>
+      <c r="Q271" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17">
+      <c r="A272" s="4"/>
+      <c r="B272" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C272" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4"/>
+      <c r="F272" s="4">
+        <v>0</v>
+      </c>
+      <c r="G272" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H272" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I272" s="4">
+        <v>0</v>
+      </c>
+      <c r="J272" s="4">
+        <v>0</v>
+      </c>
+      <c r="K272" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L272" s="7">
+        <v>0</v>
+      </c>
+      <c r="M272" s="8">
+        <v>0</v>
+      </c>
+      <c r="N272" s="7">
+        <v>30000000</v>
+      </c>
+      <c r="O272" s="7">
+        <v>300000</v>
+      </c>
+      <c r="P272" s="7">
+        <v>350000</v>
+      </c>
+      <c r="Q272" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17">
+      <c r="A273" s="4"/>
+      <c r="B273" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C273" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4"/>
+      <c r="F273" s="4">
+        <v>0</v>
+      </c>
+      <c r="G273" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H273" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I273" s="4">
+        <v>0</v>
+      </c>
+      <c r="J273" s="4">
+        <v>0</v>
+      </c>
+      <c r="K273" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L273" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="M273" s="8">
+        <v>1.71</v>
+      </c>
+      <c r="N273" s="7">
+        <v>0</v>
+      </c>
+      <c r="O273" s="7">
+        <v>0</v>
+      </c>
+      <c r="P273" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q273" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17">
+      <c r="A274" s="4"/>
+      <c r="B274" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D274" s="4"/>
+      <c r="E274" s="4"/>
+      <c r="F274" s="4">
+        <v>0</v>
+      </c>
+      <c r="G274" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H274" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I274" s="4">
+        <v>0</v>
+      </c>
+      <c r="J274" s="4">
+        <v>50</v>
+      </c>
+      <c r="K274" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L274" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="M274" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="N274" s="7">
+        <v>0</v>
+      </c>
+      <c r="O274" s="7">
+        <v>0</v>
+      </c>
+      <c r="P274" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q274" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17">
+      <c r="A275" s="4"/>
+      <c r="B275" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D275" s="4"/>
+      <c r="E275" s="4"/>
+      <c r="F275" s="4">
+        <v>0</v>
+      </c>
+      <c r="G275" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H275" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I275" s="6">
+        <v>0</v>
+      </c>
+      <c r="J275" s="6">
+        <v>0</v>
+      </c>
+      <c r="K275" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L275" s="7">
+        <v>0</v>
+      </c>
+      <c r="M275" s="8">
+        <v>0</v>
+      </c>
+      <c r="N275" s="7">
+        <v>25000000</v>
+      </c>
+      <c r="O275" s="7">
+        <v>250000</v>
+      </c>
+      <c r="P275" s="7">
+        <v>300000</v>
+      </c>
+      <c r="Q275" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17">
+      <c r="A276" s="4"/>
+      <c r="B276" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C276" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D276" s="4"/>
+      <c r="E276" s="4"/>
+      <c r="F276" s="4">
+        <v>0</v>
+      </c>
+      <c r="G276" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H276" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I276" s="6">
+        <v>0</v>
+      </c>
+      <c r="J276" s="6">
+        <v>0</v>
+      </c>
+      <c r="K276" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L276" s="7">
+        <v>0</v>
+      </c>
+      <c r="M276" s="8">
+        <v>0</v>
+      </c>
+      <c r="N276" s="7">
+        <v>30000000</v>
+      </c>
+      <c r="O276" s="7">
+        <v>300000</v>
+      </c>
+      <c r="P276" s="7">
+        <v>350000</v>
+      </c>
+      <c r="Q276" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17">
+      <c r="A277" s="4"/>
+      <c r="B277" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D277" s="4"/>
+      <c r="E277" s="4"/>
+      <c r="F277" s="4">
+        <v>0</v>
+      </c>
+      <c r="G277" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H277" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I277" s="4">
+        <v>0</v>
+      </c>
+      <c r="J277" s="4">
+        <v>0</v>
+      </c>
+      <c r="K277" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L277" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="M277" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="N277" s="7">
+        <v>0</v>
+      </c>
+      <c r="O277" s="7">
+        <v>0</v>
+      </c>
+      <c r="P277" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q277" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17">
+      <c r="A278" s="4"/>
+      <c r="B278" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D278" s="4"/>
+      <c r="E278" s="4"/>
+      <c r="F278" s="4">
+        <v>0</v>
+      </c>
+      <c r="G278" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H278" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I278" s="4">
+        <v>0</v>
+      </c>
+      <c r="J278" s="4">
+        <v>0</v>
+      </c>
+      <c r="K278" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L278" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="M278" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="N278" s="7">
+        <v>0</v>
+      </c>
+      <c r="O278" s="7">
+        <v>0</v>
+      </c>
+      <c r="P278" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q278" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17">
+      <c r="A279" s="4"/>
+      <c r="B279" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D279" s="4"/>
+      <c r="E279" s="4"/>
+      <c r="F279" s="4">
+        <v>0</v>
+      </c>
+      <c r="G279" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H279" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I279" s="4">
+        <v>2</v>
+      </c>
+      <c r="J279" s="4">
+        <v>3</v>
+      </c>
+      <c r="K279" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L279" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="M279" s="8">
+        <v>1.21</v>
+      </c>
+      <c r="N279" s="7">
+        <v>0</v>
+      </c>
+      <c r="O279" s="7">
+        <v>0</v>
+      </c>
+      <c r="P279" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q279" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17">
+      <c r="A280" s="4"/>
+      <c r="B280" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D280" s="4"/>
+      <c r="E280" s="4"/>
+      <c r="F280" s="4">
+        <v>0</v>
+      </c>
+      <c r="G280" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H280" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I280" s="4">
+        <v>4</v>
+      </c>
+      <c r="J280" s="4">
+        <v>5</v>
+      </c>
+      <c r="K280" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L280" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="M280" s="8">
+        <v>1.31</v>
+      </c>
+      <c r="N280" s="7">
+        <v>0</v>
+      </c>
+      <c r="O280" s="7">
+        <v>0</v>
+      </c>
+      <c r="P280" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q280" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17">
+      <c r="A281" s="4"/>
+      <c r="B281" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D281" s="4"/>
+      <c r="E281" s="4"/>
+      <c r="F281" s="4">
+        <v>0</v>
+      </c>
+      <c r="G281" s="5">
+        <v>999999999999</v>
+      </c>
+      <c r="H281" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I281" s="4">
+        <v>6</v>
+      </c>
+      <c r="J281" s="4">
+        <v>10</v>
+      </c>
+      <c r="K281" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L281" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="M281" s="8">
+        <v>1.41</v>
+      </c>
+      <c r="N281" s="7">
+        <v>0</v>
+      </c>
+      <c r="O281" s="7">
+        <v>0</v>
+      </c>
+      <c r="P281" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q281" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
